--- a/王者系统/王者系统二期开发需求列表.xlsx
+++ b/王者系统/王者系统二期开发需求列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\王者系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C6D2A9-A4A2-4D56-BEFB-074100AE8B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDB621-23DA-49B6-9B9D-C069FA6437A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
